--- a/PLC Test/bin/Debug/测试结果/test.xlsx
+++ b/PLC Test/bin/Debug/测试结果/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t xml:space="preserve">设置时刻</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失败</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -483,7 +489,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -491,19 +497,19 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>19</v>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>

--- a/PLC Test/bin/Debug/测试结果/test.xlsx
+++ b/PLC Test/bin/Debug/测试结果/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t xml:space="preserve">设置时刻</t>
   </si>
@@ -129,12 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">失败</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -489,7 +483,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -497,19 +491,19 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>40</v>
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>

--- a/PLC Test/bin/Debug/测试结果/test.xlsx
+++ b/PLC Test/bin/Debug/测试结果/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t xml:space="preserve">设置时刻</t>
   </si>
@@ -71,25 +71,28 @@
     <t xml:space="preserve">正循环</t>
   </si>
   <si>
+    <t xml:space="preserve">失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寄存器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">负循环</t>
+  </si>
+  <si>
     <t xml:space="preserve">成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寄存器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">负循环</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -263,13 +266,13 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -302,18 +305,18 @@
         <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -334,24 +337,24 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -366,30 +369,30 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -404,30 +407,30 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -436,16 +439,16 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -454,18 +457,18 @@
         <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -486,24 +489,24 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -512,31 +515,31 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/PLC Test/bin/Debug/测试结果/test.xlsx
+++ b/PLC Test/bin/Debug/测试结果/test.xlsx
@@ -71,28 +71,28 @@
     <t xml:space="preserve">正循环</t>
   </si>
   <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寄存器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">负循环</t>
+  </si>
+  <si>
     <t xml:space="preserve">失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寄存器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">负循环</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成功</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -266,13 +266,13 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -304,13 +304,13 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -342,13 +342,13 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -380,13 +380,13 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -418,13 +418,13 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -456,13 +456,13 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -495,13 +495,13 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -532,13 +532,13 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/PLC Test/bin/Debug/测试结果/test.xlsx
+++ b/PLC Test/bin/Debug/测试结果/test.xlsx
@@ -71,28 +71,28 @@
     <t xml:space="preserve">正循环</t>
   </si>
   <si>
+    <t xml:space="preserve">失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寄存器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">负循环</t>
+  </si>
+  <si>
     <t xml:space="preserve">成功</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">寄存器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">整数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">负循环</t>
-  </si>
-  <si>
-    <t xml:space="preserve">失败</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -266,13 +266,13 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -304,13 +304,13 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -342,13 +342,13 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -380,13 +380,13 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -418,13 +418,13 @@
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -456,13 +456,13 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -495,13 +495,13 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -532,13 +532,13 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/PLC Test/bin/Debug/测试结果/test.xlsx
+++ b/PLC Test/bin/Debug/测试结果/test.xlsx
@@ -86,7 +86,7 @@
     <t xml:space="preserve">整数</t>
   </si>
   <si>
-    <t xml:space="preserve">101</t>
+    <t xml:space="preserve">4455</t>
   </si>
   <si>
     <t xml:space="preserve">负循环</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">1位定点小数</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1</t>
+    <t xml:space="preserve">445.5</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">2位定点小数</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01</t>
+    <t xml:space="preserve">44.55</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>

--- a/PLC Test/bin/Debug/测试结果/test.xlsx
+++ b/PLC Test/bin/Debug/测试结果/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t xml:space="preserve">设置时刻</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">正循环</t>
   </si>
   <si>
-    <t xml:space="preserve">失败</t>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -86,15 +86,12 @@
     <t xml:space="preserve">整数</t>
   </si>
   <si>
-    <t xml:space="preserve">4455</t>
+    <t xml:space="preserve">101</t>
   </si>
   <si>
     <t xml:space="preserve">负循环</t>
   </si>
   <si>
-    <t xml:space="preserve">成功</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
@@ -107,7 +104,7 @@
     <t xml:space="preserve">1位定点小数</t>
   </si>
   <si>
-    <t xml:space="preserve">445.5</t>
+    <t xml:space="preserve">10.1</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -116,7 +113,7 @@
     <t xml:space="preserve">2位定点小数</t>
   </si>
   <si>
-    <t xml:space="preserve">44.55</t>
+    <t xml:space="preserve">1.01</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
@@ -266,13 +263,13 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -304,19 +301,19 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -337,24 +334,24 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -369,30 +366,30 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -407,48 +404,48 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -456,19 +453,19 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>26</v>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -489,24 +486,24 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>26</v>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -515,31 +512,31 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>26</v>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
